--- a/HerbVar education - email list.xlsx
+++ b/HerbVar education - email list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HerbVar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HerbVar\HerbVar education - lessons shared by participants\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C3AD37-332E-4543-AAF8-00A21B8E8EB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48C6931-8502-41FD-8B51-20D874E1764E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6150" xr2:uid="{B980F1E3-3029-4ADA-9C1A-47D1CA5EAAFA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Email Address</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>Position</t>
+  </si>
+  <si>
+    <t>christoph.rosche@botanik.uni-halle.de</t>
+  </si>
+  <si>
+    <t>Christoph Rosche</t>
+  </si>
+  <si>
+    <t>MLU Halle</t>
+  </si>
+  <si>
+    <t>Research and teaching associate</t>
   </si>
 </sst>
 </file>
@@ -658,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7839321-BF14-4AF0-9138-D5D6DE27E1E3}">
   <dimension ref="A1:J124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1152,10 +1164,18 @@
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>83</v>
+      </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
